--- a/Partiti/azione-iv/collegi-uninominali-azione_iv.xlsx
+++ b/Partiti/azione-iv/collegi-uninominali-azione_iv.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H222"/>
+  <dimension ref="A1:G222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -390,11 +390,6 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Pos.</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
           <t>Candidato</t>
         </is>
       </c>
@@ -422,20 +417,15 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Abruzzo - P01</t>
+          <t>Abruzzo - U01</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Abruzzo - U01</t>
+          <t>Chieti</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
-        <is>
-          <t>Chieti</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
         <is>
           <t>Gaetano Fuiano</t>
         </is>
@@ -464,20 +454,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Abruzzo - P01</t>
+          <t>Abruzzo - U02</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Abruzzo - U02</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
-        <is>
-          <t>Pescara</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
         <is>
           <t>Roberto Quercia</t>
         </is>
@@ -506,20 +491,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Abruzzo - P01</t>
+          <t>Abruzzo - U03</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Abruzzo - U03</t>
+          <t>L'Aquila</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
-        <is>
-          <t>L'Aquila</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
         <is>
           <t>Emanuela Pistoia</t>
         </is>
@@ -548,20 +528,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Basilicata - P01</t>
+          <t>Basilicata - U01</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Basilicata - U01</t>
+          <t>Potenza</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
-        <is>
-          <t>Potenza</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
         <is>
           <t>Luca Braia</t>
         </is>
@@ -590,20 +565,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Calabria - P01</t>
+          <t>Calabria - U01</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Calabria - U01</t>
+          <t>Corigliano-Rossano</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
-        <is>
-          <t>Corigliano-Rossano</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
         <is>
           <t>Domenico Mazza</t>
         </is>
@@ -632,20 +602,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Calabria - P01</t>
+          <t>Calabria - U02</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Calabria - U02</t>
+          <t>Cosenza</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
-        <is>
-          <t>Cosenza</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
         <is>
           <t>Nunzia Paese</t>
         </is>
@@ -674,20 +639,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Calabria - P01</t>
+          <t>Calabria - U03</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Calabria - U03</t>
+          <t>Catanzaro</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
-        <is>
-          <t>Catanzaro</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
         <is>
           <t>Franco Mauro</t>
         </is>
@@ -716,20 +676,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Calabria - P01</t>
+          <t>Calabria - U04</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Calabria - U04</t>
+          <t>Vibo Valentia</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
-        <is>
-          <t>Vibo Valentia</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
         <is>
           <t>Maria Galati</t>
         </is>
@@ -758,20 +713,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Calabria - P01</t>
+          <t>Calabria - U05</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Calabria - U05</t>
+          <t>Reggio di Calabria</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
-        <is>
-          <t>Reggio di Calabria</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
         <is>
           <t>Giovanni Latella</t>
         </is>
@@ -800,20 +750,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Campania 1 - P01</t>
+          <t>Campania 1 - U01</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Campania 1 - U01</t>
+          <t>Giugliano in Campania</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
-        <is>
-          <t>Giugliano in Campania</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
         <is>
           <t>Vincenzo Daniele</t>
         </is>
@@ -842,21 +787,16 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Campania 1 - P01</t>
+          <t>Campania 1 - U02</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
-        <is>
-          <t>Campania 1 - U02</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
         <is>
           <t>Napoli: Quartiere 19 -
 Fuorigrotta</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Mara Carfagna</t>
         </is>
@@ -885,21 +825,16 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Campania 1 - P01</t>
+          <t>Campania 1 - U03</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
-        <is>
-          <t>Campania 1 - U03</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
         <is>
           <t>Napoli: Quartiere 7 - San Carlo
 all'Arena</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Caterina Cernicchiaro</t>
         </is>
@@ -928,20 +863,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Campania 1 - P02</t>
+          <t>Campania 1 - U04</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Campania 1 - U04</t>
+          <t>Casoria</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
-        <is>
-          <t>Casoria</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
         <is>
           <t>Marianna Riccardi</t>
         </is>
@@ -970,20 +900,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Campania 1 - P02</t>
+          <t>Campania 1 - U05</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Campania 1 - U05</t>
+          <t>Acerra</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
-        <is>
-          <t>Acerra</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
         <is>
           <t>Vincenzo Romano</t>
         </is>
@@ -1012,20 +937,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Campania 1 - P02</t>
+          <t>Campania 1 - U06</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Campania 1 - U06</t>
+          <t>Somma Vesuviana</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
-        <is>
-          <t>Somma Vesuviana</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
         <is>
           <t>Pina Piedipalumbo</t>
         </is>
@@ -1054,20 +974,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Campania 1 - P02</t>
+          <t>Campania 1 - U07</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Campania 1 - U07</t>
+          <t>Torre del Greco</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
-        <is>
-          <t>Torre del Greco</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
         <is>
           <t>Bianca Maria Balzano</t>
         </is>
@@ -1096,20 +1011,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Campania 2 - P01</t>
+          <t>Campania 2 - U01</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Campania 2 - U01</t>
+          <t>Aversa</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
-        <is>
-          <t>Aversa</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
         <is>
           <t>Riccardo Scalzone</t>
         </is>
@@ -1138,20 +1048,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Campania 2 - P01</t>
+          <t>Campania 2 - U02</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Campania 2 - U02</t>
+          <t>Caserta</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
-        <is>
-          <t>Caserta</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
         <is>
           <t>Teresa Ucciero</t>
         </is>
@@ -1180,20 +1085,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Campania 2 - P01</t>
+          <t>Campania 2 - U03</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Campania 2 - U03</t>
+          <t>Benevento</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
-        <is>
-          <t>Benevento</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
         <is>
           <t>Antonio Del Mese</t>
         </is>
@@ -1222,20 +1122,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Campania 2 - P02</t>
+          <t>Campania 2 - U04</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Campania 2 - U04</t>
+          <t>Avellino</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
-        <is>
-          <t>Avellino</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
         <is>
           <t>Stefano Farina</t>
         </is>
@@ -1264,20 +1159,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Campania 2 - P02</t>
+          <t>Campania 2 - U05</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Campania 2 - U05</t>
+          <t>Scafati</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
-        <is>
-          <t>Scafati</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
         <is>
           <t>Imma Zinnia</t>
         </is>
@@ -1306,20 +1196,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Campania 2 - P02</t>
+          <t>Campania 2 - U06</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Campania 2 - U06</t>
+          <t>Salerno</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
-        <is>
-          <t>Salerno</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
         <is>
           <t>Corrado Naddeo</t>
         </is>
@@ -1348,20 +1233,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Campania 2 - P02</t>
+          <t>Campania 2 - U07</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Campania 2 - U07</t>
+          <t>Eboli</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
-        <is>
-          <t>Eboli</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
         <is>
           <t>Donato D'Aiuto</t>
         </is>
@@ -1390,20 +1270,15 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Emilia-Romagna - P01</t>
+          <t>Emilia-Romagna - U01</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Emilia-Romagna - U01</t>
+          <t>Piacenza</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
-        <is>
-          <t>Piacenza</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
         <is>
           <t>Sabrina De Canio</t>
         </is>
@@ -1432,20 +1307,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Emilia-Romagna - P01</t>
+          <t>Emilia-Romagna - U02</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Emilia-Romagna - U02</t>
+          <t>Parma</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
-        <is>
-          <t>Parma</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
         <is>
           <t>Matteo Ferroni</t>
         </is>
@@ -1474,20 +1344,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Emilia-Romagna - P01</t>
+          <t>Emilia-Romagna - U03</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Emilia-Romagna - U03</t>
+          <t>Reggio nell'Emilia</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
-        <is>
-          <t>Reggio nell'Emilia</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
         <is>
           <t>Maura Manghi</t>
         </is>
@@ -1516,20 +1381,15 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Emilia-Romagna - P02</t>
+          <t>Emilia-Romagna - U04</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Emilia-Romagna - U04</t>
+          <t>Modena</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
-        <is>
-          <t>Modena</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
         <is>
           <t>Claudia Cicolani</t>
         </is>
@@ -1558,20 +1418,15 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Emilia-Romagna - P02</t>
+          <t>Emilia-Romagna - U05</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Emilia-Romagna - U05</t>
+          <t>Imola</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
-        <is>
-          <t>Imola</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
         <is>
           <t>Mara Mucci</t>
         </is>
@@ -1600,20 +1455,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Emilia-Romagna - P02</t>
+          <t>Emilia-Romagna - U06</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Emilia-Romagna - U06</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
-        <is>
-          <t>Bologna</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
         <is>
           <t>Naike Gruppioni</t>
         </is>
@@ -1642,20 +1492,15 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Emilia-Romagna - P02</t>
+          <t>Emilia-Romagna - U07</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Emilia-Romagna - U07</t>
+          <t>Carpi</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
-        <is>
-          <t>Carpi</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
         <is>
           <t>Giampiero Veronesi</t>
         </is>
@@ -1684,20 +1529,15 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Emilia-Romagna - P03</t>
+          <t>Emilia-Romagna - U08</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Emilia-Romagna - U08</t>
+          <t>Ravenna</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
-        <is>
-          <t>Ravenna</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
         <is>
           <t>Chiara Francesconi</t>
         </is>
@@ -1726,20 +1566,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Emilia-Romagna - P03</t>
+          <t>Emilia-Romagna - U09</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Emilia-Romagna - U09</t>
+          <t>Ferrara</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
-        <is>
-          <t>Ferrara</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
         <is>
           <t>Francesco Badia</t>
         </is>
@@ -1768,20 +1603,15 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Emilia-Romagna - P03</t>
+          <t>Emilia-Romagna - U10</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Emilia-Romagna - U10</t>
+          <t>Forlì</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
-        <is>
-          <t>Forlì</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
         <is>
           <t>Luca Ferrini</t>
         </is>
@@ -1810,20 +1640,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Emilia-Romagna - P03</t>
+          <t>Emilia-Romagna - U11</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Emilia-Romagna - U11</t>
+          <t>Rimini</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
-        <is>
-          <t>Rimini</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
         <is>
           <t>Alessandro Petrillo</t>
         </is>
@@ -1852,20 +1677,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Friuli-Venezia Giulia - P01</t>
+          <t>Friuli-Venezia Giulia - U01</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Friuli-Venezia Giulia - U01</t>
+          <t>Pordenone</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
-        <is>
-          <t>Pordenone</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
         <is>
           <t>Teresa Tassan Viol</t>
         </is>
@@ -1894,20 +1714,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Friuli-Venezia Giulia - P01</t>
+          <t>Friuli-Venezia Giulia - U02</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Friuli-Venezia Giulia - U02</t>
+          <t>Udine</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
-        <is>
-          <t>Udine</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
         <is>
           <t>Sandra Maria Telesca</t>
         </is>
@@ -1936,20 +1751,15 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Friuli-Venezia Giulia - P01</t>
+          <t>Friuli-Venezia Giulia - U03</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Friuli-Venezia Giulia - U03</t>
+          <t>Trieste</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
-        <is>
-          <t>Trieste</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
         <is>
           <t>Daniela Rossetti</t>
         </is>
@@ -1978,20 +1788,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Lazio 1 - P01</t>
+          <t>Lazio 1 - U01</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Lazio 1 - U01</t>
+          <t>Roma: Municipio I</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
-        <is>
-          <t>Roma: Municipio I</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
         <is>
           <t>Elena Bonetti</t>
         </is>
@@ -2020,20 +1825,15 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Lazio 1 - P01</t>
+          <t>Lazio 1 - U02</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Lazio 1 - U02</t>
+          <t>Roma: Municipio III</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
-        <is>
-          <t>Roma: Municipio III</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
         <is>
           <t>Fabio Dionisi</t>
         </is>
@@ -2062,20 +1862,15 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Lazio 1 - P01</t>
+          <t>Lazio 1 - U03</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Lazio 1 - U03</t>
+          <t>Roma: Municipio V</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
-        <is>
-          <t>Roma: Municipio V</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
         <is>
           <t>Marta Maziali</t>
         </is>
@@ -2104,20 +1899,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Lazio 1 - P02</t>
+          <t>Lazio 1 - U04</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Lazio 1 - U04</t>
+          <t>Roma: Municipio VII</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
-        <is>
-          <t>Roma: Municipio VII</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
         <is>
           <t>Luca Di Egidio</t>
         </is>
@@ -2146,20 +1936,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Lazio 1 - P03</t>
+          <t>Lazio 1 - U05</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Lazio 1 - U05</t>
+          <t>Roma: Municipio X</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
-        <is>
-          <t>Roma: Municipio X</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
         <is>
           <t>Pietro Madonia</t>
         </is>
@@ -2188,20 +1973,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Lazio 1 - P03</t>
+          <t>Lazio 1 - U06</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Lazio 1 - U06</t>
+          <t>Roma: Municipio XI</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
-        <is>
-          <t>Roma: Municipio XI</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
         <is>
           <t>Francesca Severi</t>
         </is>
@@ -2230,20 +2010,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Lazio 1 - P03</t>
+          <t>Lazio 1 - U07</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Lazio 1 - U07</t>
+          <t>Roma: Municipio XIV</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
-        <is>
-          <t>Roma: Municipio XIV</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
         <is>
           <t>Valentina Grippo</t>
         </is>
@@ -2272,20 +2047,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Lazio 1 - P02</t>
+          <t>Lazio 1 - U08</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Lazio 1 - U08</t>
+          <t>Velletri</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
-        <is>
-          <t>Velletri</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
         <is>
           <t>Roberto Mastrosanti</t>
         </is>
@@ -2314,20 +2084,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Lazio 1 - P02</t>
+          <t>Lazio 1 - U09</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Lazio 1 - U09</t>
+          <t>Guidonia Montecelio</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
-        <is>
-          <t>Guidonia Montecelio</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
         <is>
           <t>Fabio Marino</t>
         </is>
@@ -2356,20 +2121,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Lazio 2 - P01</t>
+          <t>Lazio 2 - U01</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Lazio 2 - U01</t>
+          <t>Viterbo</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
-        <is>
-          <t>Viterbo</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
         <is>
           <t>Luisa Ciambella</t>
         </is>
@@ -2398,20 +2158,15 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Lazio 2 - P01</t>
+          <t>Lazio 2 - U02</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Lazio 2 - U02</t>
+          <t>Rieti</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
-        <is>
-          <t>Rieti</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
         <is>
           <t>Vincenzo Marcorelli</t>
         </is>
@@ -2440,20 +2195,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Lazio 2 - P02</t>
+          <t>Lazio 2 - U03</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Lazio 2 - U03</t>
+          <t>Latina</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
-        <is>
-          <t>Latina</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
         <is>
           <t>Tiziano Lauri</t>
         </is>
@@ -2482,20 +2232,15 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Lazio 2 - P02</t>
+          <t>Lazio 2 - U04</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Lazio 2 - U04</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
-        <is>
-          <t>Frosinone</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
         <is>
           <t>Stefano Carducci</t>
         </is>
@@ -2524,20 +2269,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Lazio 2 - P02</t>
+          <t>Lazio 2 - U05</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Lazio 2 - U05</t>
+          <t>Terracina</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
-        <is>
-          <t>Terracina</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
         <is>
           <t>Elisa Venturo</t>
         </is>
@@ -2566,20 +2306,15 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Liguria - P01</t>
+          <t>Liguria - U01</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Liguria - U01</t>
+          <t>Savona</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
-        <is>
-          <t>Savona</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
         <is>
           <t>Desiree Negri</t>
         </is>
@@ -2608,21 +2343,16 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Liguria - P01</t>
+          <t>Liguria - U02</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
-        <is>
-          <t>Liguria - U02</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
         <is>
           <t>Genova: Municipio VII -
 Ponente</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>Davide Faltieri</t>
         </is>
@@ -2651,21 +2381,16 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Liguria - P01</t>
+          <t>Liguria - U03</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
-        <is>
-          <t>Liguria - U03</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
         <is>
           <t>Genova: Municipio I - Centro
 Est</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>Mauro Avvenente</t>
         </is>
@@ -2694,20 +2419,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Liguria - P01</t>
+          <t>Liguria - U04</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Liguria - U04</t>
+          <t>La Spezia</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
-        <is>
-          <t>La Spezia</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
         <is>
           <t>Silvia Garibaldi</t>
         </is>
@@ -2736,20 +2456,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Lombardia 1 - P02</t>
+          <t>Lombardia 1 - U01</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Lombardia 1 - U01</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
-        <is>
-          <t>Monza</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
         <is>
           <t>Maria Sole Mascia</t>
         </is>
@@ -2778,20 +2493,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Lombardia 1 - P02</t>
+          <t>Lombardia 1 - U02</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Lombardia 1 - U02</t>
+          <t>Seregno</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
-        <is>
-          <t>Seregno</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
         <is>
           <t>Antonino Foti</t>
         </is>
@@ -2820,20 +2530,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Lombardia 1 - P02</t>
+          <t>Lombardia 1 - U03</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Lombardia 1 - U03</t>
+          <t>Cologno Monzese</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
-        <is>
-          <t>Cologno Monzese</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
         <is>
           <t>Livia Achilli</t>
         </is>
@@ -2862,20 +2567,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Lombardia 1 - P01</t>
+          <t>Lombardia 1 - U04</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Lombardia 1 - U04</t>
+          <t>Rozzano</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
-        <is>
-          <t>Rozzano</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
         <is>
           <t>Margherita Mazzuoccolo</t>
         </is>
@@ -2904,20 +2604,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Lombardia 1 - P01</t>
+          <t>Lombardia 1 - U05</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Lombardia 1 - U05</t>
+          <t>Legnano</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
-        <is>
-          <t>Legnano</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
         <is>
           <t>Andrea Sfrondini</t>
         </is>
@@ -2946,20 +2641,15 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Lombardia 1 - P02</t>
+          <t>Lombardia 1 - U06</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Lombardia 1 - U06</t>
+          <t>Sesto San Giovanni</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
-        <is>
-          <t>Sesto San Giovanni</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
         <is>
           <t>Emanuele De Carolis</t>
         </is>
@@ -2988,20 +2678,15 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Lombardia 1 - P01</t>
+          <t>Lombardia 1 - U07</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Lombardia 1 - U07</t>
+          <t>Milano: NIL 20 - Loreto</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
-        <is>
-          <t>Milano: NIL 20 - Loreto</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
         <is>
           <t>Filippo Campiotti</t>
         </is>
@@ -3030,20 +2715,15 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Lombardia 1 - P01</t>
+          <t>Lombardia 1 - U08</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Lombardia 1 - U08</t>
+          <t>Milano: NIL 52 - Bande Nere</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
-        <is>
-          <t>Milano: NIL 52 - Bande Nere</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
         <is>
           <t>Francesco Ascioti</t>
         </is>
@@ -3072,21 +2752,16 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Lombardia 1 - P01</t>
+          <t>Lombardia 1 - U09</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
-        <is>
-          <t>Lombardia 1 - U09</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
         <is>
           <t>Milano: NIL 21 - Buenos Aires -
 Venezia</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>Giulia Pastorella</t>
         </is>
@@ -3115,20 +2790,15 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Lombardia 2 - P01</t>
+          <t>Lombardia 2 - U01</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Lombardia 2 - U01</t>
+          <t>Varese</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
-        <is>
-          <t>Varese</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
         <is>
           <t>Guido Bonoldi</t>
         </is>
@@ -3157,20 +2827,15 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Lombardia 2 - P01</t>
+          <t>Lombardia 2 - U02</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Lombardia 2 - U02</t>
+          <t>Busto Arsizio</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
-        <is>
-          <t>Busto Arsizio</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
         <is>
           <t>Luigi Farioli</t>
         </is>
@@ -3199,20 +2864,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Lombardia 2 - P02</t>
+          <t>Lombardia 2 - U03</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Lombardia 2 - U03</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
-        <is>
-          <t>Como</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
         <is>
           <t>Anna Veronelli</t>
         </is>
@@ -3241,20 +2901,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Lombardia 2 - P02</t>
+          <t>Lombardia 2 - U04</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Lombardia 2 - U04</t>
+          <t>Sondrio</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
-        <is>
-          <t>Sondrio</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
         <is>
           <t>Alessandro Bartolini</t>
         </is>
@@ -3283,20 +2938,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Lombardia 2 - P02</t>
+          <t>Lombardia 2 - U05</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Lombardia 2 - U05</t>
+          <t>Lecco</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
-        <is>
-          <t>Lecco</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
         <is>
           <t>Stefano Motta</t>
         </is>
@@ -3325,20 +2975,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Lombardia 3 - P01</t>
+          <t>Lombardia 3 - U01</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Lombardia 3 - U01</t>
+          <t>Treviglio</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
-        <is>
-          <t>Treviglio</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
         <is>
           <t>Fabio Paganini</t>
         </is>
@@ -3367,20 +3012,15 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Lombardia 3 - P01</t>
+          <t>Lombardia 3 - U02</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Lombardia 3 - U02</t>
+          <t>Bergamo</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
-        <is>
-          <t>Bergamo</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
         <is>
           <t>Niccolò Carretta</t>
         </is>
@@ -3409,20 +3049,15 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Lombardia 3 - P02</t>
+          <t>Lombardia 3 - U03</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Lombardia 3 - U03</t>
+          <t>Lumezzane</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
-        <is>
-          <t>Lumezzane</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
         <is>
           <t>Massimo Ottelli</t>
         </is>
@@ -3451,20 +3086,15 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Lombardia 3 - P02</t>
+          <t>Lombardia 3 - U04</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Lombardia 3 - U04</t>
+          <t>Brescia</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
-        <is>
-          <t>Brescia</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
         <is>
           <t>Guido Galperti</t>
         </is>
@@ -3493,20 +3123,15 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Lombardia 3 - P02</t>
+          <t>Lombardia 3 - U05</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Lombardia 3 - U05</t>
+          <t>Desenzano del Garda</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
-        <is>
-          <t>Desenzano del Garda</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
         <is>
           <t>Monica Lippa</t>
         </is>
@@ -3535,20 +3160,15 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Lombardia 4 - P01</t>
+          <t>Lombardia 4 - U01</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Lombardia 4 - U01</t>
+          <t>Pavia</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
-        <is>
-          <t>Pavia</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
         <is>
           <t>Pierachille Lanfranchi</t>
         </is>
@@ -3577,20 +3197,15 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Lombardia 4 - P01</t>
+          <t>Lombardia 4 - U02</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Lombardia 4 - U02</t>
+          <t>Lodi</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
-        <is>
-          <t>Lodi</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
         <is>
           <t>Bianca Baruelli</t>
         </is>
@@ -3619,20 +3234,15 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Lombardia 4 - P01</t>
+          <t>Lombardia 4 - U03</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Lombardia 4 - U03</t>
+          <t>Cremona</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
-        <is>
-          <t>Cremona</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
         <is>
           <t>Gabriel Fomiatti</t>
         </is>
@@ -3661,20 +3271,15 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Lombardia 4 - P01</t>
+          <t>Lombardia 4 - U04</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Lombardia 4 - U04</t>
+          <t>Mantova</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
-        <is>
-          <t>Mantova</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
         <is>
           <t>Gianmarco Carra</t>
         </is>
@@ -3703,20 +3308,15 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Marche - P01</t>
+          <t>Marche - U01</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Marche - U01</t>
+          <t>Ascoli Piceno</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
-        <is>
-          <t>Ascoli Piceno</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
         <is>
           <t>Maria Stella Origlia</t>
         </is>
@@ -3745,20 +3345,15 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Marche - P01</t>
+          <t>Marche - U02</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Marche - U02</t>
+          <t>Macerata</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
-        <is>
-          <t>Macerata</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
         <is>
           <t>Mariano Calamita</t>
         </is>
@@ -3787,20 +3382,15 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Marche - P01</t>
+          <t>Marche - U03</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Marche - U03</t>
+          <t>Ancona</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
-        <is>
-          <t>Ancona</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
         <is>
           <t>Francesca Cantarini</t>
         </is>
@@ -3829,20 +3419,15 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Marche - P01</t>
+          <t>Marche - U04</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Marche - U04</t>
+          <t>Pesaro</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
-        <is>
-          <t>Pesaro</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
         <is>
           <t>Federico Talè</t>
         </is>
@@ -3871,20 +3456,15 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Molise - P01</t>
+          <t>Molise - U01</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Molise - U01</t>
+          <t>Campobasso</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
-        <is>
-          <t>Campobasso</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
         <is>
           <t>Donato D'Ambrosio</t>
         </is>
@@ -3913,20 +3493,15 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Piemonte 1 - P01</t>
+          <t>Piemonte 1 - U01</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Piemonte 1 - U01</t>
+          <t>Torino: Circoscrizione 2</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
-        <is>
-          <t>Torino: Circoscrizione 2</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
         <is>
           <t>Massimo Giuntoli</t>
         </is>
@@ -3955,20 +3530,15 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Piemonte 1 - P01</t>
+          <t>Piemonte 1 - U02</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Piemonte 1 - U02</t>
+          <t>Torino: Circoscrizione 3</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
-        <is>
-          <t>Torino: Circoscrizione 3</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
         <is>
           <t>Katya Agate</t>
         </is>
@@ -3997,20 +3567,15 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Piemonte 1 - P01</t>
+          <t>Piemonte 1 - U03</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Piemonte 1 - U03</t>
+          <t>Collegno</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
-        <is>
-          <t>Collegno</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
         <is>
           <t>Paola Barbero</t>
         </is>
@@ -4039,20 +3604,15 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Piemonte 1 - P02</t>
+          <t>Piemonte 1 - U04</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Piemonte 1 - U04</t>
+          <t>Chieri</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
-        <is>
-          <t>Chieri</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
         <is>
           <t>Osvaldo Napoli</t>
         </is>
@@ -4081,20 +3641,15 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Piemonte 1 - P02</t>
+          <t>Piemonte 1 - U05</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Piemonte 1 - U05</t>
+          <t>Moncalieri</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
-        <is>
-          <t>Moncalieri</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
         <is>
           <t>Daniela Ruffino</t>
         </is>
@@ -4123,20 +3678,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Piemonte 2 - P02</t>
+          <t>Piemonte 2 - U01</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Piemonte 2 - U01</t>
+          <t>Alessandria</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
-        <is>
-          <t>Alessandria</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
         <is>
           <t>Vittorio Barazzotto</t>
         </is>
@@ -4165,20 +3715,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Piemonte 2 - P01</t>
+          <t>Piemonte 2 - U02</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Piemonte 2 - U02</t>
+          <t>Novara</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
-        <is>
-          <t>Novara</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
         <is>
           <t>Teresa Barresi</t>
         </is>
@@ -4207,20 +3752,15 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Piemonte 2 - P01</t>
+          <t>Piemonte 2 - U03</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Piemonte 2 - U03</t>
+          <t>Vercelli</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
-        <is>
-          <t>Vercelli</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
         <is>
           <t>Giovanni Barosini</t>
         </is>
@@ -4249,20 +3789,15 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Piemonte 2 - P02</t>
+          <t>Piemonte 2 - U04</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Piemonte 2 - U04</t>
+          <t>Asti</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
-        <is>
-          <t>Asti</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
         <is>
           <t>Barbara Baino</t>
         </is>
@@ -4291,20 +3826,15 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Piemonte 2 - P02</t>
+          <t>Piemonte 2 - U05</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Piemonte 2 - U05</t>
+          <t>Cuneo</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
-        <is>
-          <t>Cuneo</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
         <is>
           <t>Enrico Costa</t>
         </is>
@@ -4333,20 +3863,15 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Puglia - P01</t>
+          <t>Puglia - U01</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Puglia - U01</t>
+          <t>Foggia</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
-        <is>
-          <t>Foggia</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
         <is>
           <t>Nino Denaro</t>
         </is>
@@ -4375,20 +3900,15 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Puglia - P01</t>
+          <t>Puglia - U02</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Puglia - U02</t>
+          <t>Cerignola</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
-        <is>
-          <t>Cerignola</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
         <is>
           <t>Chiara D'Errico</t>
         </is>
@@ -4417,20 +3937,15 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Puglia - P01</t>
+          <t>Puglia - U03</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Puglia - U03</t>
+          <t>Andria</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
-        <is>
-          <t>Andria</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
         <is>
           <t>Gennaro Rocciola</t>
         </is>
@@ -4459,20 +3974,15 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Puglia - P02</t>
+          <t>Puglia - U04</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Puglia - U04</t>
+          <t>Molfetta</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
-        <is>
-          <t>Molfetta</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
         <is>
           <t>Benedetto Grillo</t>
         </is>
@@ -4501,20 +4011,15 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Puglia - P02</t>
+          <t>Puglia - U05</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Puglia - U05</t>
+          <t>Bari</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
-        <is>
-          <t>Bari</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
         <is>
           <t>Stefano Franco</t>
         </is>
@@ -4543,20 +4048,15 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Puglia - P03</t>
+          <t>Puglia - U06</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Puglia - U06</t>
+          <t>Altamura</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
-        <is>
-          <t>Altamura</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
         <is>
           <t>Rosalia Lisi</t>
         </is>
@@ -4585,20 +4085,15 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Puglia - P04</t>
+          <t>Puglia - U07</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Puglia - U07</t>
+          <t>Brindisi</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
-        <is>
-          <t>Brindisi</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
         <is>
           <t>Antonietta Curlo</t>
         </is>
@@ -4627,20 +4122,15 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Puglia - P03</t>
+          <t>Puglia - U08</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Puglia - U08</t>
+          <t>Taranto</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
-        <is>
-          <t>Taranto</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
         <is>
           <t>Angelo Di Lena</t>
         </is>
@@ -4669,20 +4159,15 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Puglia - P04</t>
+          <t>Puglia - U09</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Puglia - U09</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
-        <is>
-          <t>Lecce</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
         <is>
           <t>Soave Alemanno</t>
         </is>
@@ -4711,20 +4196,15 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Puglia - P04</t>
+          <t>Puglia - U10</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Puglia - U10</t>
+          <t>Galatina</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
-        <is>
-          <t>Galatina</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
         <is>
           <t>Ada Fiore</t>
         </is>
@@ -4753,20 +4233,15 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Sardegna - P01</t>
+          <t>Sardegna - U01</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Sardegna - U01</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
-        <is>
-          <t>Cagliari</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
         <is>
           <t>Franco Stara</t>
         </is>
@@ -4795,20 +4270,15 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Sardegna - P01</t>
+          <t>Sardegna - U02</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Sardegna - U02</t>
+          <t>Carbonia</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
-        <is>
-          <t>Carbonia</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
         <is>
           <t>Alberto Cacciarru</t>
         </is>
@@ -4837,20 +4307,15 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Sardegna - P01</t>
+          <t>Sardegna - U03</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Sardegna - U03</t>
+          <t>Nuoro</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
-        <is>
-          <t>Nuoro</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
         <is>
           <t>Stefano Coinu</t>
         </is>
@@ -4879,20 +4344,15 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Sardegna - P01</t>
+          <t>Sardegna - U04</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Sardegna - U04</t>
+          <t>Sassari</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
-        <is>
-          <t>Sassari</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
         <is>
           <t>Giovanni Maria Pedoni</t>
         </is>
@@ -4921,21 +4381,16 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Sicilia 1 - P01</t>
+          <t>Sicilia 1 - U01</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
-        <is>
-          <t>Sicilia 1 - U01</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
         <is>
           <t>Palermo: Quartiere 11 -
 Settecannoli</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>Giuseppe Alessi</t>
         </is>
@@ -4964,21 +4419,16 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Sicilia 1 - P01</t>
+          <t>Sicilia 1 - U02</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
-        <is>
-          <t>Sicilia 1 - U02</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
         <is>
           <t>Palermo: Quartiere 20 -
 Resuttana - S.Lorenzo</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>Giuseppe Caltanissetta</t>
         </is>
@@ -5007,20 +4457,15 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Sicilia 1 - P01</t>
+          <t>Sicilia 1 - U03</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Sicilia 1 - U03</t>
+          <t>Bagheria</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
-        <is>
-          <t>Bagheria</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
         <is>
           <t>Claudio Merlino</t>
         </is>
@@ -5049,20 +4494,15 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Sicilia 1 - P02</t>
+          <t>Sicilia 1 - U04</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Sicilia 1 - U04</t>
+          <t>Gela</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
-        <is>
-          <t>Gela</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
         <is>
           <t>Emanuele Maganuco</t>
         </is>
@@ -5091,20 +4531,15 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Sicilia 1 - P02</t>
+          <t>Sicilia 1 - U05</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Sicilia 1 - U05</t>
+          <t>Agrigento</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
-        <is>
-          <t>Agrigento</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
         <is>
           <t>Leonardo Ciaccio</t>
         </is>
@@ -5133,20 +4568,15 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Sicilia 1 - P02</t>
+          <t>Sicilia 1 - U06</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Sicilia 1 - U06</t>
+          <t>Marsala</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
-        <is>
-          <t>Marsala</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
         <is>
           <t>Giulia Pantaleo</t>
         </is>
@@ -5175,20 +4605,15 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Sicilia 2 - P03</t>
+          <t>Sicilia 2 - U01</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Sicilia 2 - U01</t>
+          <t>Ragusa</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
-        <is>
-          <t>Ragusa</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
         <is>
           <t>Salvatore Liuzzo</t>
         </is>
@@ -5217,20 +4642,15 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Sicilia 2 - P02</t>
+          <t>Sicilia 2 - U02</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Sicilia 2 - U02</t>
+          <t>Catania</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
-        <is>
-          <t>Catania</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
         <is>
           <t>Vincenzo Ciraldo</t>
         </is>
@@ -5259,20 +4679,15 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Sicilia 2 - P02</t>
+          <t>Sicilia 2 - U03</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Sicilia 2 - U03</t>
+          <t>Acireale</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
-        <is>
-          <t>Acireale</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
         <is>
           <t>Angelica Prestianni</t>
         </is>
@@ -5301,20 +4716,15 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Sicilia 2 - P03</t>
+          <t>Sicilia 2 - U04</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Sicilia 2 - U04</t>
+          <t>Siracusa</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
-        <is>
-          <t>Siracusa</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
         <is>
           <t>Concetta Carbone</t>
         </is>
@@ -5343,20 +4753,15 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Sicilia 2 - P01</t>
+          <t>Sicilia 2 - U05</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Sicilia 2 - U05</t>
+          <t>Barcellona Pozzo di Gotto</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
-        <is>
-          <t>Barcellona Pozzo di Gotto</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
         <is>
           <t>Fabrizio Pulvirenti</t>
         </is>
@@ -5385,20 +4790,15 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Sicilia 2 - P01</t>
+          <t>Sicilia 2 - U06</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Sicilia 2 - U06</t>
+          <t>Messina</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
-        <is>
-          <t>Messina</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
         <is>
           <t>Letteria Modica</t>
         </is>
@@ -5427,20 +4827,15 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Toscana - P02</t>
+          <t>Toscana - U01</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Toscana - U01</t>
+          <t>Grosseto</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
-        <is>
-          <t>Grosseto</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr">
         <is>
           <t>Stefano Scaramelli</t>
         </is>
@@ -5469,20 +4864,15 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Toscana - P01</t>
+          <t>Toscana - U02</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Toscana - U02</t>
+          <t>Massa</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
-        <is>
-          <t>Massa</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
         <is>
           <t>Cosimo Ferri</t>
         </is>
@@ -5511,20 +4901,15 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Toscana - P01</t>
+          <t>Toscana - U03</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Toscana - U03</t>
+          <t>Lucca</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
-        <is>
-          <t>Lucca</t>
-        </is>
-      </c>
-      <c r="H123" t="inlineStr">
         <is>
           <t>Marco Remaschi</t>
         </is>
@@ -5553,20 +4938,15 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Toscana - P03</t>
+          <t>Toscana - U04</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Toscana - U04</t>
+          <t>Pisa</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
-        <is>
-          <t>Pisa</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr">
         <is>
           <t>Michele Passerelli</t>
         </is>
@@ -5595,20 +4975,15 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Toscana - P03</t>
+          <t>Toscana - U05</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Toscana - U05</t>
+          <t>Livorno</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
-        <is>
-          <t>Livorno</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr">
         <is>
           <t>Alessandro Cosimi</t>
         </is>
@@ -5637,20 +5012,15 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Toscana - P03</t>
+          <t>Toscana - U06</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Toscana - U06</t>
+          <t>Prato</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
-        <is>
-          <t>Prato</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr">
         <is>
           <t>Edoardo Fanucci</t>
         </is>
@@ -5679,20 +5049,15 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Toscana - P03</t>
+          <t>Toscana - U07</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Toscana - U07</t>
+          <t>Firenze</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
-        <is>
-          <t>Firenze</t>
-        </is>
-      </c>
-      <c r="H127" t="inlineStr">
         <is>
           <t>Lucia Annibali</t>
         </is>
@@ -5721,20 +5086,15 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Toscana - P03</t>
+          <t>Toscana - U08</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Toscana - U08</t>
+          <t>Scandicci</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
-        <is>
-          <t>Scandicci</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr">
         <is>
           <t>Gabriele Toccafondi</t>
         </is>
@@ -5763,20 +5123,15 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Toscana - P02</t>
+          <t>Toscana - U09</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Toscana - U09</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
-        <is>
-          <t>Arezzo</t>
-        </is>
-      </c>
-      <c r="H129" t="inlineStr">
         <is>
           <t>Lucia Chierici</t>
         </is>
@@ -5806,3693 +5161,3249 @@
       <c r="E130" t="inlineStr">
         <is>
           <t>Trentino-Alto Adige/Südtirol -
-P01</t>
+U01</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Roberto Sani</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Camera dei deputati</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Trentino-Alto Adige/Südtirol</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Trentino-Alto Adige/Südtirol -
+U02</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Rovereto</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Alessia Tarolli</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Camera dei deputati</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Trentino-Alto Adige/Südtirol</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Trentino-Alto Adige/Südtirol -
+U03</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Bolzano/Bozen</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Mauro Randi</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Camera dei deputati</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Trentino-Alto Adige/Südtirol</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Trentino-Alto Adige/Südtirol -
+U04</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Bressanone/Brixen</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Ennio Chiodi</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Camera dei deputati</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Umbria - U01</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Terni</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Franco Barbabella</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Camera dei deputati</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Umbria - U02</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Perugia</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Carla Casciari</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Camera dei deputati</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta/Vallée d'Aoste</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Valle d'aosta/Vallée d'Aoste -
+U01</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Aosta</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>NON INDICATO</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Camera dei deputati</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Veneto 1</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Veneto 1 - U01</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Alberto Baban</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Camera dei deputati</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Veneto 1</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Veneto 1 - U02</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Chioggia</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Federico Resler</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Camera dei deputati</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Veneto 1</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Veneto 1 - U03</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Treviso</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Alessandra Nava</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Camera dei deputati</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Veneto 1</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Veneto 1 - U04</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Castelfranco Veneto</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Nadine Tabacchi</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Camera dei deputati</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Veneto 1</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Veneto 1 - U05</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Belluno</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Marco Griguolo</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Camera dei deputati</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Veneto 2</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Veneto 2 - U01</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Rovigo</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Giacomo Bovolenta</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Camera dei deputati</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Veneto 2</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Veneto 2 - U02</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Selvazzano Dentro</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Maria Antonietta Auditore</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Camera dei deputati</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Veneto 2</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Veneto 2 - U03</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Padova</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Carlo Pasqualetto</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Camera dei deputati</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Veneto 2</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Veneto 2 - U04</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Bassano del Grappa</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Stefano Zausa</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Camera dei deputati</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Veneto 2</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Veneto 2 - U05</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Vicenza</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Marica Dalla Valle</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Camera dei deputati</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Veneto 2</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Veneto 2 - U06</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Maria Francesca Salzani</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Camera dei deputati</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Veneto 2</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Veneto 2 - U07</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Villafranca di Verona</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Davide Bendinelli</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Senato</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Abruzzo - U01</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Pescara</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Gianfranco Giuliante</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Senato</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Basilicata - U01</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Potenza</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Mariangela Guerra</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Senato</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Calabria - U01</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Corigliano-Rossano</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Daniela Ventura</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Senato</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Calabria - U02</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Reggio di Calabria</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Agostino Siviglia</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Senato</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Campania - U01</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Caserta</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Ovidio Marzaioli</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Senato</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Campania - U02</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Benevento</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Francesca Mite</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Senato</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Campania - U03</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Salerno</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Luigi Casciello</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Senato</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Campania - U04</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Peppe Russo</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Senato</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Campania - U05</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Giugliano in Campania</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Vittoria Cristiano</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Senato</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Campania - U06</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Torre del Greco</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Mario Scognamiglio</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Senato</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Campania - U07</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Acerra</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Anita Di Palma</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Senato</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Emilia-Romagna</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Emilia-Romagna - U01</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Alessandro Sbalbi</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Senato</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Emilia-Romagna</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Emilia-Romagna - U02</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Chiara Caselgrandi</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Senato</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Emilia-Romagna</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Emilia-Romagna - U03</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Marco Lombardo</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Senato</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Emilia-Romagna</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Emilia-Romagna - U04</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Ravenna</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Silvia Kranz</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Senato</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Emilia-Romagna</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Emilia-Romagna - U05</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Rimini</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Elena Leardini</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Senato</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Friuli-Venezia Giulia</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Friuli-Venezia Giulia - U01</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Trieste</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Giuliano Castenetto</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Senato</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Lazio - U01</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Viterbo</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Alessandro Sterpa</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Senato</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Lazio - U02</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Roma: Municipio XIV</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Carlo Calenda</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Senato</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Lazio - U03</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Roma: Municipio V</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Livia Pandolfi</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Senato</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Lazio - U04</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Roma: Municipio VII</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Rita Iorio</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Senato</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Lazio - U05</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Guidonia Montecelio</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Ileana Katia Piazzoni</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Senato</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Lazio - U06</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Latina</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Adamo Pantano</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Senato</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Liguria - U01</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Genova: Municipio VII -
+Ponente</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Maria Caridi</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Senato</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Liguria - U02</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>La Spezia</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Michele Carrella</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Senato</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Lombardia - U01</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Varese</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Giusy Versace</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Senato</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Lombardia - U02</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Giuseppe Conti</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Senato</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Lombardia - U03</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Milano: NIL 21 - Buenos Aires -
+Venezia</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Ivan Scalfarotto</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Senato</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Lombardia - U04</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Sesto San Giovanni</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Tiziana Demma</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Senato</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Lombardia - U05</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Cologno Monzese</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Marco Malinverni</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Senato</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Lombardia - U06</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Monza</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Fabio Albanese</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Senato</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Lombardia - U07</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Bergamo</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Andrea Moltrasio</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Senato</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Lombardia - U08</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Riccardo Canini</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Senato</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Lombardia - U09</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Treviglio</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Maria Stella Gelmini</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Senato</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Lombardia - U10</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Pavia</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Francesca Zanchi</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Senato</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Lombardia - U11</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Cremona</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Francesca Zaltieri</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Senato</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Marche - U01</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Ascoli Piceno</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Fabio Urbinati</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Senato</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Marche - U02</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Ancona</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Elena Fabbri</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Senato</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Molise - U01</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Campobasso</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Carla Gianmaria</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Senato</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Piemonte - U01</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Silvia Fregolent</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Senato</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Piemonte - U02</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Moncalieri</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Michael Bouquet</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Senato</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Piemonte - U03</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Novara</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Roberto Faggiano</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Senato</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Piemonte - U04</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Alessandria</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Elena Caffarone</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Senato</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Piemonte - U05</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Cuneo</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Vincenzo Pellegrino</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Senato</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Puglia - U01</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Foggia</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>Lorenzo Frattarolo</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Senato</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Puglia - U02</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Andria</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Stefania D'Addato</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Senato</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Puglia - U03</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Bari</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>Nunzia Cinone</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Senato</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Puglia - U04</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Taranto</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Nicola Bruni</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Senato</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Puglia - U05</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Alfredo Pagliaro</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Senato</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Sardegna - U01</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Claudia Medda</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Senato</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Sardegna - U02</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Sassari</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>Valerio Zoccheddu</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Senato</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Sicilia - U01</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>Giusi Provino</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Senato</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Sicilia - U02</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Marsala</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>Giovanni Bavetta</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Senato</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Sicilia - U03</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Gela</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>Michele Termini</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Senato</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Sicilia - U04</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Catania</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>Tiziana D'Anna</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Senato</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Sicilia - U05</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Siracusa</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>Marianna Buscema</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Senato</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Sicilia - U06</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Messina</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>Emiliano Lazzara Papina</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Senato</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>Toscana - U01</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Arezzo</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>Davide Vivaldi</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Senato</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>Toscana - U02</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Livorno</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>Massimo Vitrani</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Senato</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>Toscana - U03</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Prato</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>Barbara Masini</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Senato</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>Toscana - U04</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Firenze</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>Stefania Saccardi</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Senato</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Trentino-Alto Adige/Südtirol</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
         <is>
           <t>Trentino-Alto Adige/Südtirol -
 U01</t>
         </is>
       </c>
-      <c r="G130" t="inlineStr">
+      <c r="F210" t="inlineStr">
         <is>
           <t>Trento</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>Roberto Sani</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>Camera dei deputati</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>Alleanza democratica
+per l'autonomia</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Senato</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
         <is>
           <t>Trentino-Alto Adige/Südtirol</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>Trentino-Alto Adige/Südtirol -
-P01</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
+      <c r="E211" t="inlineStr">
         <is>
           <t>Trentino-Alto Adige/Südtirol -
 U02</t>
         </is>
       </c>
-      <c r="G131" t="inlineStr">
+      <c r="F211" t="inlineStr">
         <is>
           <t>Rovereto</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>Alessia Tarolli</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>Camera dei deputati</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>Donatella Consatti</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Senato</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
         <is>
           <t>Trentino-Alto Adige/Südtirol</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>Trentino-Alto Adige/Südtirol -
-P01</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
+      <c r="E212" t="inlineStr">
         <is>
           <t>Trentino-Alto Adige/Südtirol -
 U03</t>
         </is>
       </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>Bolzano/Bozen</t>
-        </is>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>Mauro Randi</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>Camera dei deputati</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Pergine Valsugana</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>Alleanza democratica
+per l'autonomia</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Senato</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
         <is>
           <t>Trentino-Alto Adige/Südtirol</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>Trentino-Alto Adige/Südtirol -
-P01</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
+      <c r="E213" t="inlineStr">
         <is>
           <t>Trentino-Alto Adige/Südtirol -
 U04</t>
         </is>
       </c>
-      <c r="G133" t="inlineStr">
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Bolzano/Bozen</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>Stefania Gande</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Senato</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Trentino-Alto Adige/Südtirol</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>Trentino-Alto Adige/Südtirol -
+U05</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Merano/Meran</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>Giovanna Valentini</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Senato</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Trentino-Alto Adige/Südtirol</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>Trentino-Alto Adige/Südtirol -
+U06</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
         <is>
           <t>Bressanone/Brixen</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>Ennio Chiodi</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>Camera dei deputati</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>Massimo Papi</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Senato</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
         <is>
           <t>Umbria</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>Umbria - P01</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
+      <c r="E216" t="inlineStr">
         <is>
           <t>Umbria - U01</t>
         </is>
       </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>Terni</t>
-        </is>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>Franco Barbabella</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Camera dei deputati</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>Umbria</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>Umbria - P01</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Umbria - U02</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr">
+      <c r="F216" t="inlineStr">
         <is>
           <t>Perugia</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>Carla Casciari</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Camera dei deputati</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>Valle d'Aosta/Vallée d'Aoste</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>Donatella Porzi</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Senato</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Azione-IV</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
         <is>
           <t>Valle d'aosta/Vallée d'Aoste -
 U01</t>
         </is>
       </c>
-      <c r="G136" t="inlineStr">
+      <c r="F217" t="inlineStr">
         <is>
           <t>Aosta</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>NON INDICATO</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>Camera dei deputati</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>Veneto 1</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>Veneto 1 - P01</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Veneto 1 - U01</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>Venezia</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>Alberto Baban</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>Camera dei deputati</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>Veneto 1</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>Veneto 1 - P01</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Veneto 1 - U02</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>Chioggia</t>
-        </is>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>Federico Resler</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Camera dei deputati</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>Veneto 1</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>Veneto 1 - P01</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>Veneto 1 - U03</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>Treviso</t>
-        </is>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>Alessandra Nava</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>Camera dei deputati</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>Veneto 1</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>Veneto 1 - P01</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Veneto 1 - U04</t>
-        </is>
-      </c>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t>Castelfranco Veneto</t>
-        </is>
-      </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>Nadine Tabacchi</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>Camera dei deputati</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>Veneto 1</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>Veneto 1 - P01</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Veneto 1 - U05</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>Belluno</t>
-        </is>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>Marco Griguolo</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>Camera dei deputati</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>Veneto 2</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>Veneto 2 - P01</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Veneto 2 - U01</t>
-        </is>
-      </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>Rovigo</t>
-        </is>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>Giacomo Bovolenta</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>Camera dei deputati</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>Veneto 2</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>Veneto 2 - P01</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Veneto 2 - U02</t>
-        </is>
-      </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>Selvazzano Dentro</t>
-        </is>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>Maria Antonietta Auditore</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>Camera dei deputati</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>Veneto 2</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>Veneto 2 - P01</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Veneto 2 - U03</t>
-        </is>
-      </c>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t>Padova</t>
-        </is>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>Carlo Pasqualetto</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>Camera dei deputati</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>Veneto 2</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>Veneto 2 - P02</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>Veneto 2 - U04</t>
-        </is>
-      </c>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t>Bassano del Grappa</t>
-        </is>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>Stefano Zausa</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>Camera dei deputati</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>Veneto 2</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>Veneto 2 - P02</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Veneto 2 - U05</t>
-        </is>
-      </c>
-      <c r="G146" t="inlineStr">
-        <is>
-          <t>Vicenza</t>
-        </is>
-      </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>Marica Dalla Valle</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>Camera dei deputati</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>Veneto 2</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>Veneto 2 - P03</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Veneto 2 - U06</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>Verona</t>
-        </is>
-      </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>Maria Francesca Salzani</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>Camera dei deputati</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>Veneto 2</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>Veneto 2 - P03</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>Veneto 2 - U07</t>
-        </is>
-      </c>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>Villafranca di Verona</t>
-        </is>
-      </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>Davide Bendinelli</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>Senato</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>Abruzzo</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>Abruzzo - P01</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>Abruzzo - U01</t>
-        </is>
-      </c>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>Pescara</t>
-        </is>
-      </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>Gianfranco Giuliante</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>Senato</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>Basilicata</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>Basilicata - P01</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>Basilicata - U01</t>
-        </is>
-      </c>
-      <c r="G150" t="inlineStr">
-        <is>
-          <t>Potenza</t>
-        </is>
-      </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>Mariangela Guerra</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>Senato</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>Calabria</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>Calabria - P01</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>Calabria - U01</t>
-        </is>
-      </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>Corigliano-Rossano</t>
-        </is>
-      </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>Daniela Ventura</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>Senato</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>Calabria</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>Calabria - P01</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>Calabria - U02</t>
-        </is>
-      </c>
-      <c r="G152" t="inlineStr">
-        <is>
-          <t>Reggio di Calabria</t>
-        </is>
-      </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>Agostino Siviglia</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>Senato</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>Campania</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>Campania - P02</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>Campania - U01</t>
-        </is>
-      </c>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>Caserta</t>
-        </is>
-      </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>Ovidio Marzaioli</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>Senato</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>Campania</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>Campania - P02</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>Campania - U02</t>
-        </is>
-      </c>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>Benevento</t>
-        </is>
-      </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>Francesca Mite</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>Senato</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>Campania</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>Campania - P02</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>Campania - U03</t>
-        </is>
-      </c>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>Salerno</t>
-        </is>
-      </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>Luigi Casciello</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>Senato</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>Campania</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>Campania - P01</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Campania - U04</t>
-        </is>
-      </c>
-      <c r="G156" t="inlineStr">
-        <is>
-          <t>Napoli</t>
-        </is>
-      </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>Peppe Russo</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>Senato</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>Campania</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>Campania - P01</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Campania - U05</t>
-        </is>
-      </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>Giugliano in Campania</t>
-        </is>
-      </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>Vittoria Cristiano</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>Senato</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>Campania</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>Campania - P01</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>Campania - U06</t>
-        </is>
-      </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>Torre del Greco</t>
-        </is>
-      </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>Mario Scognamiglio</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>Senato</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>Campania</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>Campania - P01</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>Campania - U07</t>
-        </is>
-      </c>
-      <c r="G159" t="inlineStr">
-        <is>
-          <t>Acerra</t>
-        </is>
-      </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>Anita Di Palma</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>Senato</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>Emilia-Romagna</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>Emilia-Romagna - P01</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>Emilia-Romagna - U01</t>
-        </is>
-      </c>
-      <c r="G160" t="inlineStr">
-        <is>
-          <t>Parma</t>
-        </is>
-      </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>Alessandro Sbalbi</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>Senato</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>Emilia-Romagna</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>Emilia-Romagna - P01</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>Emilia-Romagna - U02</t>
-        </is>
-      </c>
-      <c r="G161" t="inlineStr">
-        <is>
-          <t>Modena</t>
-        </is>
-      </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>Chiara Caselgrandi</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>Senato</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>Emilia-Romagna</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>Emilia-Romagna - P02</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>Emilia-Romagna - U03</t>
-        </is>
-      </c>
-      <c r="G162" t="inlineStr">
-        <is>
-          <t>Bologna</t>
-        </is>
-      </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>Marco Lombardo</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>Senato</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>Emilia-Romagna</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>Emilia-Romagna - P02</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>Emilia-Romagna - U04</t>
-        </is>
-      </c>
-      <c r="G163" t="inlineStr">
-        <is>
-          <t>Ravenna</t>
-        </is>
-      </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>Silvia Kranz</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>Senato</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>Emilia-Romagna</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>Emilia-Romagna - P02</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>Emilia-Romagna - U05</t>
-        </is>
-      </c>
-      <c r="G164" t="inlineStr">
-        <is>
-          <t>Rimini</t>
-        </is>
-      </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>Elena Leardini</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>Senato</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>Friuli-Venezia Giulia</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>Friuli-Venezia Giulia - P01</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>Friuli-Venezia Giulia - U01</t>
-        </is>
-      </c>
-      <c r="G165" t="inlineStr">
-        <is>
-          <t>Trieste</t>
-        </is>
-      </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>Giuliano Castenetto</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>Senato</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>Lazio</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>Lazio - P02</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>Lazio - U01</t>
-        </is>
-      </c>
-      <c r="G166" t="inlineStr">
-        <is>
-          <t>Viterbo</t>
-        </is>
-      </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>Alessandro Sterpa</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>Senato</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>Lazio</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>Lazio - P01</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>Lazio - U02</t>
-        </is>
-      </c>
-      <c r="G167" t="inlineStr">
-        <is>
-          <t>Roma: Municipio XIV</t>
-        </is>
-      </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>Carlo Calenda</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>Senato</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>Lazio</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>Lazio - P01</t>
-        </is>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>Lazio - U03</t>
-        </is>
-      </c>
-      <c r="G168" t="inlineStr">
-        <is>
-          <t>Roma: Municipio V</t>
-        </is>
-      </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>Livia Pandolfi</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>Senato</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>Lazio</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>Lazio - P01</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>Lazio - U04</t>
-        </is>
-      </c>
-      <c r="G169" t="inlineStr">
-        <is>
-          <t>Roma: Municipio VII</t>
-        </is>
-      </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>Rita Iorio</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>Senato</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>Lazio</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>Lazio - P02</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>Lazio - U05</t>
-        </is>
-      </c>
-      <c r="G170" t="inlineStr">
-        <is>
-          <t>Guidonia Montecelio</t>
-        </is>
-      </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>Ileana Katia Piazzoni</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>Senato</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>Lazio</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>Lazio - P02</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>Lazio - U06</t>
-        </is>
-      </c>
-      <c r="G171" t="inlineStr">
-        <is>
-          <t>Latina</t>
-        </is>
-      </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>Adamo Pantano</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>Senato</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>Liguria</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>Liguria - P01</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Liguria - U01</t>
-        </is>
-      </c>
-      <c r="G172" t="inlineStr">
-        <is>
-          <t>Genova: Municipio VII -
-Ponente</t>
-        </is>
-      </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>Maria Caridi</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>Senato</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>Liguria</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>Liguria - P01</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>Liguria - U02</t>
-        </is>
-      </c>
-      <c r="G173" t="inlineStr">
-        <is>
-          <t>La Spezia</t>
-        </is>
-      </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>Michele Carrella</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>Senato</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>Lombardia</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>Lombardia - P01</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>Lombardia - U01</t>
-        </is>
-      </c>
-      <c r="G174" t="inlineStr">
-        <is>
-          <t>Varese</t>
-        </is>
-      </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>Giusy Versace</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>Senato</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>Lombardia</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>Lombardia - P01</t>
-        </is>
-      </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>Lombardia - U02</t>
-        </is>
-      </c>
-      <c r="G175" t="inlineStr">
-        <is>
-          <t>Como</t>
-        </is>
-      </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>Giuseppe Conti</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>Senato</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>Lombardia</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>Lombardia - P02</t>
-        </is>
-      </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Lombardia - U03</t>
-        </is>
-      </c>
-      <c r="G176" t="inlineStr">
-        <is>
-          <t>Milano: NIL 21 - Buenos Aires -
-Venezia</t>
-        </is>
-      </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>Ivan Scalfarotto</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>Senato</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>Lombardia</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>Lombardia - P02</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>Lombardia - U04</t>
-        </is>
-      </c>
-      <c r="G177" t="inlineStr">
-        <is>
-          <t>Sesto San Giovanni</t>
-        </is>
-      </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>Tiziana Demma</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>Senato</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>Lombardia</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>Lombardia - P02</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>Lombardia - U05</t>
-        </is>
-      </c>
-      <c r="G178" t="inlineStr">
-        <is>
-          <t>Cologno Monzese</t>
-        </is>
-      </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>Marco Malinverni</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>Senato</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>Lombardia</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>Lombardia - P01</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>Lombardia - U06</t>
-        </is>
-      </c>
-      <c r="G179" t="inlineStr">
-        <is>
-          <t>Monza</t>
-        </is>
-      </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>Fabio Albanese</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>Senato</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>Lombardia</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>Lombardia - P03</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>Lombardia - U07</t>
-        </is>
-      </c>
-      <c r="G180" t="inlineStr">
-        <is>
-          <t>Bergamo</t>
-        </is>
-      </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>Andrea Moltrasio</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>Senato</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>Lombardia</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>Lombardia - P03</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>Lombardia - U08</t>
-        </is>
-      </c>
-      <c r="G181" t="inlineStr">
-        <is>
-          <t>Brescia</t>
-        </is>
-      </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>Riccardo Canini</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>Senato</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>Lombardia</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>Lombardia - P03</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>Lombardia - U09</t>
-        </is>
-      </c>
-      <c r="G182" t="inlineStr">
-        <is>
-          <t>Treviglio</t>
-        </is>
-      </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>Maria Stella Gelmini</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>Senato</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>Lombardia</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>Lombardia - P02</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>Lombardia - U10</t>
-        </is>
-      </c>
-      <c r="G183" t="inlineStr">
-        <is>
-          <t>Pavia</t>
-        </is>
-      </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>Francesca Zanchi</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>Senato</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>Lombardia</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>Lombardia - P03</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>Lombardia - U11</t>
-        </is>
-      </c>
-      <c r="G184" t="inlineStr">
-        <is>
-          <t>Cremona</t>
-        </is>
-      </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>Francesca Zaltieri</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>Senato</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>Marche</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>Marche - P01</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>Marche - U01</t>
-        </is>
-      </c>
-      <c r="G185" t="inlineStr">
-        <is>
-          <t>Ascoli Piceno</t>
-        </is>
-      </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>Fabio Urbinati</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>Senato</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>Marche</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>Marche - P01</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>Marche - U02</t>
-        </is>
-      </c>
-      <c r="G186" t="inlineStr">
-        <is>
-          <t>Ancona</t>
-        </is>
-      </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>Elena Fabbri</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>Senato</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>Molise</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>Molise - P01</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>Molise - U01</t>
-        </is>
-      </c>
-      <c r="G187" t="inlineStr">
-        <is>
-          <t>Campobasso</t>
-        </is>
-      </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>Carla Gianmaria</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>Senato</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>Piemonte</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>Piemonte - P01</t>
-        </is>
-      </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>Piemonte - U01</t>
-        </is>
-      </c>
-      <c r="G188" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>Silvia Fregolent</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>Senato</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>Piemonte</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>Piemonte - P01</t>
-        </is>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>Piemonte - U02</t>
-        </is>
-      </c>
-      <c r="G189" t="inlineStr">
-        <is>
-          <t>Moncalieri</t>
-        </is>
-      </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>Michael Bouquet</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>Senato</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>Piemonte</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>Piemonte - P02</t>
-        </is>
-      </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>Piemonte - U03</t>
-        </is>
-      </c>
-      <c r="G190" t="inlineStr">
-        <is>
-          <t>Novara</t>
-        </is>
-      </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>Roberto Faggiano</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>Senato</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>Piemonte</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>Piemonte - P02</t>
-        </is>
-      </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>Piemonte - U04</t>
-        </is>
-      </c>
-      <c r="G191" t="inlineStr">
-        <is>
-          <t>Alessandria</t>
-        </is>
-      </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>Elena Caffarone</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>Senato</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>Piemonte</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>Piemonte - P02</t>
-        </is>
-      </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>Piemonte - U05</t>
-        </is>
-      </c>
-      <c r="G192" t="inlineStr">
-        <is>
-          <t>Cuneo</t>
-        </is>
-      </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>Vincenzo Pellegrino</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>Senato</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>Puglia</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>Puglia - P01</t>
-        </is>
-      </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>Puglia - U01</t>
-        </is>
-      </c>
-      <c r="G193" t="inlineStr">
-        <is>
-          <t>Foggia</t>
-        </is>
-      </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>Lorenzo Frattarolo</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>Senato</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>Puglia</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>Puglia - P01</t>
-        </is>
-      </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>Puglia - U02</t>
-        </is>
-      </c>
-      <c r="G194" t="inlineStr">
-        <is>
-          <t>Andria</t>
-        </is>
-      </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>Stefania D'Addato</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>Senato</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>Puglia</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>Puglia - P01</t>
-        </is>
-      </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>Puglia - U03</t>
-        </is>
-      </c>
-      <c r="G195" t="inlineStr">
-        <is>
-          <t>Bari</t>
-        </is>
-      </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>Nunzia Cinone</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>Senato</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>Puglia</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>Puglia - P01</t>
-        </is>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>Puglia - U04</t>
-        </is>
-      </c>
-      <c r="G196" t="inlineStr">
-        <is>
-          <t>Taranto</t>
-        </is>
-      </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>Nicola Bruni</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>Senato</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>Puglia</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>Puglia - P01</t>
-        </is>
-      </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>Puglia - U05</t>
-        </is>
-      </c>
-      <c r="G197" t="inlineStr">
-        <is>
-          <t>Lecce</t>
-        </is>
-      </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>Alfredo Pagliaro</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>Senato</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>Sardegna</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>Sardegna - P01</t>
-        </is>
-      </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>Sardegna - U01</t>
-        </is>
-      </c>
-      <c r="G198" t="inlineStr">
-        <is>
-          <t>Cagliari</t>
-        </is>
-      </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>Claudia Medda</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>Senato</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>Sardegna</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>Sardegna - P01</t>
-        </is>
-      </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>Sardegna - U02</t>
-        </is>
-      </c>
-      <c r="G199" t="inlineStr">
-        <is>
-          <t>Sassari</t>
-        </is>
-      </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>Valerio Zoccheddu</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>Senato</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>Sicilia</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>Sicilia - P01</t>
-        </is>
-      </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>Sicilia - U01</t>
-        </is>
-      </c>
-      <c r="G200" t="inlineStr">
-        <is>
-          <t>Palermo</t>
-        </is>
-      </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>Giusi Provino</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>Senato</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>Sicilia</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>Sicilia - P01</t>
-        </is>
-      </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>Sicilia - U02</t>
-        </is>
-      </c>
-      <c r="G201" t="inlineStr">
-        <is>
-          <t>Marsala</t>
-        </is>
-      </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>Giovanni Bavetta</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>Senato</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>Sicilia</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>Sicilia - P01</t>
-        </is>
-      </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>Sicilia - U03</t>
-        </is>
-      </c>
-      <c r="G202" t="inlineStr">
-        <is>
-          <t>Gela</t>
-        </is>
-      </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>Michele Termini</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>Senato</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>Sicilia</t>
-        </is>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>Sicilia - P02</t>
-        </is>
-      </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>Sicilia - U04</t>
-        </is>
-      </c>
-      <c r="G203" t="inlineStr">
-        <is>
-          <t>Catania</t>
-        </is>
-      </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>Tiziana D'Anna</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>Senato</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>Sicilia</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>Sicilia - P02</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>Sicilia - U05</t>
-        </is>
-      </c>
-      <c r="G204" t="inlineStr">
-        <is>
-          <t>Siracusa</t>
-        </is>
-      </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>Marianna Buscema</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>Senato</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>Sicilia</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>Sicilia - P02</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>Sicilia - U06</t>
-        </is>
-      </c>
-      <c r="G205" t="inlineStr">
-        <is>
-          <t>Messina</t>
-        </is>
-      </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>Emiliano Lazzara Papina</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>Senato</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>Toscana</t>
-        </is>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>Toscana - P01</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>Toscana - U01</t>
-        </is>
-      </c>
-      <c r="G206" t="inlineStr">
-        <is>
-          <t>Arezzo</t>
-        </is>
-      </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>Davide Vivaldi</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>Senato</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>Toscana</t>
-        </is>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>Toscana - P01</t>
-        </is>
-      </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>Toscana - U02</t>
-        </is>
-      </c>
-      <c r="G207" t="inlineStr">
-        <is>
-          <t>Livorno</t>
-        </is>
-      </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>Massimo Vitrani</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>Senato</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>Toscana</t>
-        </is>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>Toscana - P01</t>
-        </is>
-      </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>Toscana - U03</t>
-        </is>
-      </c>
-      <c r="G208" t="inlineStr">
-        <is>
-          <t>Prato</t>
-        </is>
-      </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>Barbara Masini</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>Senato</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>Toscana</t>
-        </is>
-      </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>Toscana - P01</t>
-        </is>
-      </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>Toscana - U04</t>
-        </is>
-      </c>
-      <c r="G209" t="inlineStr">
-        <is>
-          <t>Firenze</t>
-        </is>
-      </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>Stefania Saccardi</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>Senato</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>Trentino-Alto Adige/Südtirol</t>
-        </is>
-      </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>Trentino-Alto Adige/Südtirol -
-U01</t>
-        </is>
-      </c>
-      <c r="G210" t="inlineStr">
-        <is>
-          <t>Trento</t>
-        </is>
-      </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>Alleanza democratica
-per l'autonomia</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>Senato</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>Trentino-Alto Adige/Südtirol</t>
-        </is>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>Trentino-Alto Adige/Südtirol -
-U02</t>
-        </is>
-      </c>
-      <c r="G211" t="inlineStr">
-        <is>
-          <t>Rovereto</t>
-        </is>
-      </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>Donatella Consatti</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>Senato</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>Trentino-Alto Adige/Südtirol</t>
-        </is>
-      </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>Trentino-Alto Adige/Südtirol -
-U03</t>
-        </is>
-      </c>
-      <c r="G212" t="inlineStr">
-        <is>
-          <t>Pergine Valsugana</t>
-        </is>
-      </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>Alleanza democratica
-per l'autonomia</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>Senato</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>Trentino-Alto Adige/Südtirol</t>
-        </is>
-      </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>Trentino-Alto Adige/Südtirol -
-U04</t>
-        </is>
-      </c>
-      <c r="G213" t="inlineStr">
-        <is>
-          <t>Bolzano/Bozen</t>
-        </is>
-      </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>Stefania Gande</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>Senato</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>Trentino-Alto Adige/Südtirol</t>
-        </is>
-      </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>Trentino-Alto Adige/Südtirol -
-U05</t>
-        </is>
-      </c>
-      <c r="G214" t="inlineStr">
-        <is>
-          <t>Merano/Meran</t>
-        </is>
-      </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>Giovanna Valentini</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>Senato</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>Trentino-Alto Adige/Südtirol</t>
-        </is>
-      </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>Trentino-Alto Adige/Südtirol -
-U06</t>
-        </is>
-      </c>
-      <c r="G215" t="inlineStr">
-        <is>
-          <t>Bressanone/Brixen</t>
-        </is>
-      </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>Massimo Papi</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>Senato</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>Umbria</t>
-        </is>
-      </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>Umbria - P01</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>Umbria - U01</t>
-        </is>
-      </c>
-      <c r="G216" t="inlineStr">
-        <is>
-          <t>Perugia</t>
-        </is>
-      </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>Donatella Porzi</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>Senato</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>Azione-IV</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>Valle d'Aosta</t>
-        </is>
-      </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>Valle d'aosta/Vallée d'Aoste -
-U01</t>
-        </is>
-      </c>
       <c r="G217" t="inlineStr">
-        <is>
-          <t>Aosta</t>
-        </is>
-      </c>
-      <c r="H217" t="inlineStr">
         <is>
           <t>NON INDICATO</t>
         </is>
@@ -9521,20 +8432,15 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Veneto - P01</t>
+          <t>Veneto - U01</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Veneto - U01</t>
+          <t>Venezia</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
-        <is>
-          <t>Venezia</t>
-        </is>
-      </c>
-      <c r="H218" t="inlineStr">
         <is>
           <t>Gabriele Galiazzo</t>
         </is>
@@ -9563,20 +8469,15 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Veneto - P01</t>
+          <t>Veneto - U02</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Veneto - U02</t>
+          <t>Treviso</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
-        <is>
-          <t>Treviso</t>
-        </is>
-      </c>
-      <c r="H219" t="inlineStr">
         <is>
           <t>Paola Bergamo</t>
         </is>
@@ -9605,20 +8506,15 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Veneto - P02</t>
+          <t>Veneto - U03</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Veneto - U03</t>
+          <t>Padova</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
-        <is>
-          <t>Padova</t>
-        </is>
-      </c>
-      <c r="H220" t="inlineStr">
         <is>
           <t>Stefano Innocente
 Marangon</t>
@@ -9648,20 +8544,15 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Veneto - P02</t>
+          <t>Veneto - U04</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Veneto - U04</t>
+          <t>Vicenza</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
-        <is>
-          <t>Vicenza</t>
-        </is>
-      </c>
-      <c r="H221" t="inlineStr">
         <is>
           <t>Marilisa Munari</t>
         </is>
@@ -9690,20 +8581,15 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Veneto - P02</t>
+          <t>Veneto - U05</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Veneto - U05</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
-        <is>
-          <t>Verona</t>
-        </is>
-      </c>
-      <c r="H222" t="inlineStr">
         <is>
           <t>Danilo Montanari</t>
         </is>
